--- a/biology/Zoologie/Brachiopoda_(classification_phylogénétique)/Brachiopoda_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Brachiopoda_(classification_phylogénétique)/Brachiopoda_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Brachiopoda (Phoronozoa, Brachiozoa, Brachiopodes, Phoronozoaires), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1017,7 +1031,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1035,7 +1049,9 @@
           <t>Débat scientifique relatif à la phylogénie des Brachiopoda</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Inarticulés se sont révélés paraphylétiques. Mais la position respective des différents groupes, ainsi que celle des Phoronidiens, restent objets de débat.
 </t>
@@ -1048,7 +1064,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1068,16 +1084,89 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-(en) Artem Kouchinsky, Stefan Bengtson et Duncan J. E. Murdock, « A New Tannuolinid Problematic from the Lower Cambrian of the Sukharikha River in Northern Siberia », Acta Palaeontologica Polonica, vol. 55, no 2,‎ juin 2010, p. 321-331 (ISSN 0567-7920, OCLC 4663291758, lire en ligne, consulté le 31 août 2014)
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Artem Kouchinsky, Stefan Bengtson et Duncan J. E. Murdock, « A New Tannuolinid Problematic from the Lower Cambrian of the Sukharikha River in Northern Siberia », Acta Palaeontologica Polonica, vol. 55, no 2,‎ juin 2010, p. 321-331 (ISSN 0567-7920, OCLC 4663291758, lire en ligne, consulté le 31 août 2014)
 (en) Christian B. Skovsted, Uwe Balthasar, Glenn A. Brock et John R. Paterson, « The Tommotiid Camenella reticulosa from the Early Cambrian of South Australia : Morphology, Scleritome Reconstruction, and Phylogeny », Acta Palaeontologica Polonica, vol. 54, no 3,‎ septembre 2009, p. 525–540 (ISSN 0567-7920, OCLC 4630552412, lire en ligne, consulté le 31 août 2014)
 U. Balthasar et N.J. Butterfield, « Early Cambrian "soft−shelled" brachiopods as possible stem−group phoronids », Acta Palaeontologica Polonica, vol. 54, no 2,‎ juin 2009, p. 307-314 (ISSN 0567-7920, OCLC 702516981, lire en ligne, consulté le 31 août 2014)
-(en) B.L. Cohen et A. Weydmann, « Molecular evidence that phoronids are a subtaxon of brachiopods (Brachiopoda: Phoronata) and that genetic divergence of metazoan phyla began long before the early Cambrian », Organisms Diversity &amp; Evolution, vol. 5, no 4,‎ décembre 2005, p. 253-273 (ISSN 1439-6092, OCLC 4653596738, lire en ligne, consulté le 31 août 2014)
-Sources internet
-BrachNet
-Phoronida
-Liens internes
-Arbre phylogénétique
+(en) B.L. Cohen et A. Weydmann, « Molecular evidence that phoronids are a subtaxon of brachiopods (Brachiopoda: Phoronata) and that genetic divergence of metazoan phyla began long before the early Cambrian », Organisms Diversity &amp; Evolution, vol. 5, no 4,‎ décembre 2005, p. 253-273 (ISSN 1439-6092, OCLC 4653596738, lire en ligne, consulté le 31 août 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>BrachNet
+Phoronida</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brachiopoda_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brachiopoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Brachiopoda
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
